--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage - 1.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage - 1.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="215"/>
-    <sheet name="E30" r:id="rId10" sheetId="216"/>
-    <sheet name="E32" r:id="rId11" sheetId="217"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="218"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="219"/>
+    <sheet name="E31" r:id="rId9" sheetId="241"/>
+    <sheet name="E30" r:id="rId10" sheetId="242"/>
+    <sheet name="E32" r:id="rId11" sheetId="243"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="244"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="245"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Date détection</t>
+  </si>
+  <si>
+    <t>JAVA - DATASTAGE</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="93" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +609,278 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="53">
+  <fills count="98">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,22 +1062,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -887,8 +1165,228 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1039,6 +1537,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
       <left style="thin"/>
     </border>
     <border>
@@ -1098,21 +1649,129 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="661">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1121,136 +1780,52 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="33" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="33" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="35" fontId="0" numFmtId="0" xfId="0">
@@ -1262,150 +1837,135 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="35" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="33" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="33" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="35" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="36" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="36" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="36" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="39" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="39" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="39" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,131 +2065,131 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="42" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="42" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="42" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="42" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="42" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="40" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="40" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="40" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="40" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="40" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="44" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="44" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="44" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="44" fontId="38" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="43" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="43" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="43" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="43" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="41" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="41" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="41" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="41" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="45" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="45" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1745,86 +2305,1331 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="50" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="48" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="16" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="52" borderId="16" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="51" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="49" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="49" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="49" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="49" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="53" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="53" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="63" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="61" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="61" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="61" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="61" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="65" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="65" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="71" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="69" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="69" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="69" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="69" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="73" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="73" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="73" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="73" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="79" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="79" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="79" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="79" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="77" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="77" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="77" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="77" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="81" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="87" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="87" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="87" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="87" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="85" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="85" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="89" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="95" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="95" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="95" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="95" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="93" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="93" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="97" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2176,7 +3981,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet215.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2184,37 +3989,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="581" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="581" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="581" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="164">
+      <c r="A2" s="582" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s" s="165">
+      <c r="B2" s="583" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s" s="164">
+      <c r="C2" s="582" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="164">
+      <c r="D2" s="582" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2223,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet216.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2231,93 +4036,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="584" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="584" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="167">
+      <c r="A2" s="585" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="168">
+      <c r="B2" s="586" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s" s="167">
+      <c r="C2" s="585" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="167">
+      <c r="D2" s="585" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="169">
+      <c r="A3" s="587" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="170">
+      <c r="B3" s="588" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="169">
+      <c r="C3" s="587" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="169">
+      <c r="D3" s="587" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="171">
+      <c r="A4" s="589" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="172">
+      <c r="B4" s="590" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="171">
+      <c r="C4" s="589" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="171">
+      <c r="D4" s="589" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="173">
+      <c r="A5" s="591" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="174">
+      <c r="B5" s="592" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="173">
+      <c r="C5" s="591" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="173">
+      <c r="D5" s="591" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="175">
+      <c r="A6" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="176">
+      <c r="B6" s="594" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="175">
+      <c r="C6" s="593" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s" s="175">
+      <c r="D6" s="593" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2326,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet217.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2334,23 +4139,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="595" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="595" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="595" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2359,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet218.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T7"/>
   <sheetViews>
@@ -2367,415 +4172,415 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.96875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.765625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="19.1875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="90.91015625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.82421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.1171875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.8984375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.4765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="79.90234375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.92578125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5390625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="90.91015625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.78515625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.82421875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="596" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="597" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="598" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="599" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="600" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="183" t="s">
+      <c r="F1" s="601" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="602" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="603" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="186" t="s">
+      <c r="I1" s="604" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="187" t="s">
+      <c r="J1" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="188" t="s">
+      <c r="K1" s="606" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="189" t="s">
+      <c r="L1" s="607" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190" t="s">
+      <c r="M1" s="608" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="191" t="s">
+      <c r="N1" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="192" t="s">
+      <c r="O1" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="193" t="s">
+      <c r="P1" s="611" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="194" t="s">
+      <c r="Q1" s="612" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="195" t="s">
+      <c r="R1" s="613" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="196" t="s">
+      <c r="S1" s="614" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="216">
+      <c r="A2" s="634" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s" s="216">
+      <c r="B2" s="634" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="216">
+      <c r="C2" s="634" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s" s="216">
+      <c r="D2" s="634" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s" s="216">
+      <c r="E2" s="634" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s" s="216">
+      <c r="F2" s="634" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s" s="216">
+      <c r="G2" s="634" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s" s="217">
+      <c r="H2" s="635" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="219">
+      <c r="I2" s="637" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="217">
+      <c r="J2" s="635" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="220" t="n">
+      <c r="K2" s="636"/>
+      <c r="L2" s="636"/>
+      <c r="M2" s="636"/>
+      <c r="N2" s="638" t="n">
         <v>312996.0</v>
       </c>
-      <c r="O2" t="s" s="216">
+      <c r="O2" s="634" t="s">
         <v>60</v>
       </c>
-      <c r="P2" t="s" s="216">
+      <c r="P2" s="634" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" t="s" s="217">
+      <c r="Q2" s="635" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s" s="217">
+      <c r="R2" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s" s="217">
+      <c r="S2" s="635" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="221">
+      <c r="A3" s="639" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s" s="221">
+      <c r="B3" s="639" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s" s="221">
+      <c r="C3" s="639" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s" s="221">
+      <c r="D3" s="639" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s" s="221">
+      <c r="E3" s="639" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s" s="221">
+      <c r="F3" s="639" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s" s="221">
+      <c r="G3" s="639" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="222">
+      <c r="H3" s="640" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s" s="224">
+      <c r="I3" s="642" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s" s="222">
+      <c r="J3" s="640" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="225" t="n">
+      <c r="K3" s="641"/>
+      <c r="L3" s="641"/>
+      <c r="M3" s="641"/>
+      <c r="N3" s="643" t="n">
         <v>313058.0</v>
       </c>
-      <c r="O3" t="s" s="221">
+      <c r="O3" s="639" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s" s="221">
+      <c r="P3" s="639" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" t="s" s="222">
+      <c r="Q3" s="640" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s" s="222">
+      <c r="R3" s="640" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s" s="222">
+      <c r="S3" s="640" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="226">
+      <c r="A4" s="644" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s" s="226">
+      <c r="B4" s="644" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s" s="226">
+      <c r="C4" s="644" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s" s="226">
+      <c r="D4" s="644" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s" s="226">
+      <c r="E4" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s" s="226">
+      <c r="F4" s="644" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s" s="226">
+      <c r="G4" s="644" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s" s="227">
+      <c r="H4" s="645" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s" s="229">
+      <c r="I4" s="647" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s" s="227">
+      <c r="J4" s="645" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="230" t="n">
+      <c r="K4" s="646"/>
+      <c r="L4" s="646"/>
+      <c r="M4" s="646"/>
+      <c r="N4" s="648" t="n">
         <v>312946.0</v>
       </c>
-      <c r="O4" t="s" s="226">
+      <c r="O4" s="644" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s" s="226">
+      <c r="P4" s="644" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s" s="227">
+      <c r="Q4" s="645" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="s" s="227">
+      <c r="R4" s="645" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s" s="227">
+      <c r="S4" s="645" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="231">
+      <c r="A5" s="649" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s" s="231">
+      <c r="B5" s="649" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s" s="231">
+      <c r="C5" s="649" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s" s="231">
+      <c r="D5" s="649" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s" s="231">
+      <c r="E5" s="649" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="231">
+      <c r="F5" s="649" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s" s="231">
+      <c r="G5" s="649" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s" s="232">
+      <c r="H5" s="650" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="234">
+      <c r="I5" s="652" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s" s="232">
+      <c r="J5" s="650" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="232"/>
-      <c r="O5" t="s" s="231">
+      <c r="K5" s="651"/>
+      <c r="L5" s="651"/>
+      <c r="M5" s="651"/>
+      <c r="N5" s="650"/>
+      <c r="O5" s="649" t="s">
         <v>68</v>
       </c>
-      <c r="P5" t="s" s="231">
+      <c r="P5" s="649" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" t="s" s="232">
+      <c r="Q5" s="650" t="s">
         <v>42</v>
       </c>
-      <c r="R5" t="s" s="232">
+      <c r="R5" s="650" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s" s="232">
+      <c r="S5" s="650" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="235">
+      <c r="A6" s="653" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s" s="235">
+      <c r="B6" s="653" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s" s="235">
+      <c r="C6" s="653" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s" s="235">
+      <c r="D6" s="653" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s" s="235">
+      <c r="E6" s="653" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s" s="235">
+      <c r="F6" s="653" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s" s="235">
+      <c r="G6" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s" s="236">
+      <c r="H6" s="654" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s" s="238">
+      <c r="I6" s="656" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s" s="236">
+      <c r="J6" s="654" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="236"/>
-      <c r="O6" t="s" s="235">
+      <c r="K6" s="655"/>
+      <c r="L6" s="655"/>
+      <c r="M6" s="655"/>
+      <c r="N6" s="654"/>
+      <c r="O6" s="653" t="s">
         <v>68</v>
       </c>
-      <c r="P6" t="s" s="235">
+      <c r="P6" s="653" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" t="s" s="236">
+      <c r="Q6" s="654" t="s">
         <v>42</v>
       </c>
-      <c r="R6" t="s" s="236">
+      <c r="R6" s="654" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s" s="236">
+      <c r="S6" s="654" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="239">
+      <c r="A7" s="657" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="239">
+      <c r="B7" s="657" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s" s="239">
+      <c r="C7" s="657" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s" s="239">
+      <c r="D7" s="657" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s" s="239">
+      <c r="E7" s="657" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s" s="239">
+      <c r="F7" s="657" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s" s="239">
+      <c r="G7" s="657" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s" s="240">
+      <c r="H7" s="658" t="s">
         <v>80</v>
       </c>
-      <c r="I7" t="s" s="242">
+      <c r="I7" s="660" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="240">
+      <c r="J7" s="658" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="241"/>
-      <c r="N7" s="240"/>
-      <c r="O7" t="s" s="239">
+      <c r="K7" s="659"/>
+      <c r="L7" s="659"/>
+      <c r="M7" s="659"/>
+      <c r="N7" s="658"/>
+      <c r="O7" s="657" t="s">
         <v>78</v>
       </c>
-      <c r="P7" t="s" s="239">
+      <c r="P7" s="657" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" t="s" s="240">
+      <c r="Q7" s="658" t="s">
         <v>42</v>
       </c>
-      <c r="R7" t="s" s="240">
+      <c r="R7" s="658" t="s">
         <v>28</v>
       </c>
-      <c r="S7" t="s" s="240">
-        <v>81</v>
+      <c r="S7" s="658" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="N3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I6" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="N2"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="N3"/>
+    <hyperlink r:id="rId5" ref="I4"/>
+    <hyperlink r:id="rId6" ref="N4"/>
+    <hyperlink r:id="rId7" ref="I5"/>
+    <hyperlink r:id="rId8" ref="I6"/>
+    <hyperlink r:id="rId9" ref="I7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet219.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -2783,83 +4588,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.26171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.1953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.96875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.765625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="19.1875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.48046875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="8.75390625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.31640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.26171875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.70703125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1953125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5390625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.48046875" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.75390625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.12109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="615" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="616" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="617" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="618" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="202" t="s">
+      <c r="F1" s="620" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="203" t="s">
+      <c r="G1" s="621" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="204" t="s">
+      <c r="H1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="205" t="s">
+      <c r="I1" s="623" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="206" t="s">
+      <c r="J1" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="207" t="s">
+      <c r="K1" s="625" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="208" t="s">
+      <c r="L1" s="626" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="209" t="s">
+      <c r="M1" s="627" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="210" t="s">
+      <c r="N1" s="628" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="211" t="s">
+      <c r="O1" s="629" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="212" t="s">
+      <c r="P1" s="630" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="213" t="s">
+      <c r="Q1" s="631" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="214" t="s">
+      <c r="R1" s="632" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="215" t="s">
+      <c r="S1" s="633" t="s">
         <v>79</v>
       </c>
     </row>
